--- a/Documentación/Formato gestion de cambios.xlsx
+++ b/Documentación/Formato gestion de cambios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahernandez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpoicaorg-my.sharepoint.com/personal/hahernandez_agrosavia_co/Documents/GitHub/SIAP/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627687FE-C3D7-4029-9235-A92CEE01434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{627687FE-C3D7-4029-9235-A92CEE01434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89FFE5A2-B8EE-49D5-A0AD-1F7F25425D72}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2bn98tbbETCU8Z0YRfr9/anH+DtbxtT7McSZEh0FfL2bWbj7FcGu/6P0xCXDaQsr1hS1aFc5Ilr6uFD2KM7JBA==" workbookSaltValue="o/+1VGEBaBDns1djCk2pJA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -372,6 +372,9 @@
     <t>Fijar el directorio en: /Codigo fuente</t>
   </si>
   <si>
+    <t>Publicar o recompilar el codigo desde el directorio /Codigo fuente el codigo del SE-MAPA utilizando visual studio</t>
+  </si>
+  <si>
     <t>Ejecutar los scripts para actualizar las tablas que son;
 I_SITB_Estacion_1_1.sql
 I_SITB_Estacion_1_2.sql
@@ -380,16 +383,11 @@
 I_SITB_Estacion_3_1.sql
 I_SITB_Estacion_3_2.sql
 I_SITB_Estacion_3_3.sql
-I_SITB_RegEst.sql
-I_SITB_RegIng.sql
 I_SITB_SenEst1.sql
 I_SITB_SenEst2.sql
 I_SITB_SenEst3.sql
 I_ZentraET0.sql
 I_ZentraVar.sql</t>
-  </si>
-  <si>
-    <t>Publicar o recompilar el codigo desde el directorio /Codigo fuente el codigo del SE-MAPA utilizando visual studio</t>
   </si>
 </sst>
 </file>
@@ -1262,204 +1260,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1470,6 +1270,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1500,7 +1324,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1520,22 +1344,196 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2187,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2207,12 +2205,12 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2236,10 +2234,10 @@
       <c r="X2" s="18"/>
     </row>
     <row r="3" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
@@ -2263,12 +2261,12 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
@@ -2292,14 +2290,14 @@
       <c r="X4" s="18"/>
     </row>
     <row r="5" spans="2:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -2328,11 +2326,11 @@
       <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="58">
         <v>80808335</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -2361,11 +2359,11 @@
       <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -2394,11 +2392,11 @@
       <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -2418,14 +2416,14 @@
       <c r="X8" s="18"/>
     </row>
     <row r="9" spans="2:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2454,11 +2452,11 @@
       <c r="D10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -2487,11 +2485,11 @@
       <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -2520,11 +2518,11 @@
       <c r="D12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="106">
         <v>1</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -2547,13 +2545,13 @@
       <c r="B13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -2573,14 +2571,14 @@
       <c r="X13" s="18"/>
     </row>
     <row r="14" spans="2:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -2600,18 +2598,18 @@
       <c r="X14" s="18"/>
     </row>
     <row r="15" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -2631,16 +2629,16 @@
       <c r="X15" s="18"/>
     </row>
     <row r="16" spans="2:24" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="34">
         <v>2</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -2660,12 +2658,12 @@
       <c r="X16" s="18"/>
     </row>
     <row r="17" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -2685,12 +2683,12 @@
       <c r="X17" s="18"/>
     </row>
     <row r="18" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2710,12 +2708,12 @@
       <c r="X18" s="18"/>
     </row>
     <row r="19" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2735,12 +2733,12 @@
       <c r="X19" s="18"/>
     </row>
     <row r="20" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2760,18 +2758,18 @@
       <c r="X20" s="18"/>
     </row>
     <row r="21" spans="2:24" ht="37.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2791,14 +2789,14 @@
       <c r="X21" s="18"/>
     </row>
     <row r="22" spans="2:24" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="93"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -2818,16 +2816,16 @@
       <c r="X22" s="18"/>
     </row>
     <row r="23" spans="2:24" ht="217" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="93"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="34">
         <v>2</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -2846,17 +2844,17 @@
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
     </row>
-    <row r="24" spans="2:24" ht="233.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="72" t="s">
-        <v>99</v>
+    <row r="24" spans="2:24" ht="200.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="56" t="s">
+        <v>100</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="34">
         <v>2</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -2876,14 +2874,14 @@
       <c r="X24" s="18"/>
     </row>
     <row r="25" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -2903,16 +2901,16 @@
       <c r="X25" s="18"/>
     </row>
     <row r="26" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="97">
+      <c r="C26" s="43"/>
+      <c r="D26" s="44">
         <v>2</v>
       </c>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -2932,14 +2930,14 @@
       <c r="X26" s="18"/>
     </row>
     <row r="27" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -2959,14 +2957,14 @@
       <c r="X27" s="18"/>
     </row>
     <row r="28" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -2986,14 +2984,14 @@
       <c r="X28" s="18"/>
     </row>
     <row r="29" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -3013,16 +3011,16 @@
       <c r="X29" s="18"/>
     </row>
     <row r="30" spans="2:24" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="72" t="s">
-        <v>100</v>
+      <c r="B30" s="56" t="s">
+        <v>99</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="97">
+      <c r="C30" s="57"/>
+      <c r="D30" s="44">
         <v>2</v>
       </c>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -3042,14 +3040,14 @@
       <c r="X30" s="18"/>
     </row>
     <row r="31" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="108"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -3069,12 +3067,12 @@
       <c r="X31" s="18"/>
     </row>
     <row r="32" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -3094,12 +3092,12 @@
       <c r="X32" s="18"/>
     </row>
     <row r="33" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -3119,18 +3117,18 @@
       <c r="X33" s="18"/>
     </row>
     <row r="34" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="80" t="s">
+      <c r="E34" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -3150,16 +3148,16 @@
       <c r="X34" s="18"/>
     </row>
     <row r="35" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="73"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="34">
         <v>1</v>
       </c>
-      <c r="E35" s="74"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -3179,12 +3177,12 @@
       <c r="X35" s="18"/>
     </row>
     <row r="36" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -3204,12 +3202,12 @@
       <c r="X36" s="18"/>
     </row>
     <row r="37" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="79"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -3229,12 +3227,12 @@
       <c r="X37" s="18"/>
     </row>
     <row r="38" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="79"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -3254,12 +3252,12 @@
       <c r="X38" s="18"/>
     </row>
     <row r="39" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -3279,12 +3277,12 @@
       <c r="X39" s="18"/>
     </row>
     <row r="40" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -3304,14 +3302,14 @@
       <c r="X40" s="18"/>
     </row>
     <row r="41" spans="2:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -3331,12 +3329,12 @@
       <c r="X41" s="18"/>
     </row>
     <row r="42" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -3356,14 +3354,14 @@
       <c r="X42" s="18"/>
     </row>
     <row r="43" spans="2:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -3383,12 +3381,12 @@
       <c r="X43" s="18"/>
     </row>
     <row r="44" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="84"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -3408,14 +3406,14 @@
       <c r="X44" s="18"/>
     </row>
     <row r="45" spans="2:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
@@ -3435,18 +3433,18 @@
       <c r="X45" s="18"/>
     </row>
     <row r="46" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="80" t="s">
+      <c r="E46" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -3466,12 +3464,12 @@
       <c r="X46" s="18"/>
     </row>
     <row r="47" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="72"/>
-      <c r="C47" s="73"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="33"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="83"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
@@ -3491,12 +3489,12 @@
       <c r="X47" s="18"/>
     </row>
     <row r="48" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="72"/>
-      <c r="C48" s="73"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="33"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="83"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -3516,12 +3514,12 @@
       <c r="X48" s="18"/>
     </row>
     <row r="49" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="72"/>
-      <c r="C49" s="73"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="33"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="83"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -3541,12 +3539,12 @@
       <c r="X49" s="18"/>
     </row>
     <row r="50" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="72"/>
-      <c r="C50" s="73"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="83"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -3566,12 +3564,12 @@
       <c r="X50" s="18"/>
     </row>
     <row r="51" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="72"/>
-      <c r="C51" s="73"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="33"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="83"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -3591,12 +3589,12 @@
       <c r="X51" s="18"/>
     </row>
     <row r="52" spans="2:24" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="72"/>
-      <c r="C52" s="73"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="33"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="83"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
@@ -3616,14 +3614,14 @@
       <c r="X52" s="18"/>
     </row>
     <row r="53" spans="2:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="40"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
@@ -3652,11 +3650,11 @@
       <c r="D54" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="58">
         <v>80808335</v>
       </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="52"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
@@ -3683,11 +3681,11 @@
       <c r="D55" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="61" t="s">
+      <c r="E55" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="52"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
@@ -3716,9 +3714,9 @@
       <c r="D56" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="83"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
@@ -26189,12 +26187,69 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E47:G47"/>
@@ -26211,69 +26266,12 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="C2:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D33 D35:D40 D47:D52 D30 D16:D20 D22:D26" xr:uid="{115D71F7-0502-5C4A-8019-5E8AA49D0457}">
@@ -26622,14 +26620,14 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="E13" s="87" t="s">
+      <c r="C13" s="112"/>
+      <c r="E13" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="112"/>
       <c r="T13">
         <v>11</v>
       </c>
@@ -27685,15 +27683,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007FE29134F722304A9C0D4A3288D1D728" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f6d8af54459dfddf1c943a2730ec8e07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6603dcac-9d8f-427c-99ee-4e61ba528e6d" xmlns:ns3="03e0125d-9770-4c4b-96f8-421584dcd458" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8514858c47e48c9a6f114f6dac068e5" ns2:_="" ns3:_="">
     <xsd:import namespace="6603dcac-9d8f-427c-99ee-4e61ba528e6d"/>
@@ -27896,15 +27885,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68CCA8ED-8FD9-4B7F-95D4-994DA8FC5921}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C471CE8-C0A8-481A-A802-2F2CCAE095A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27921,4 +27911,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68CCA8ED-8FD9-4B7F-95D4-994DA8FC5921}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>